--- a/reference/dictionary_raw_BSI_Malta.xlsx
+++ b/reference/dictionary_raw_BSI_Malta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.humphreys\Documents\Development\epi_ehr_bsi\Malta\data\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.humphreys\Documents\Development\EHR-BSI\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7BF73-E713-403C-87A6-F504CF7AEB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3E9C13-BA93-425E-AADE-4586B3A62B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{40EAA346-9FDB-45C9-BACF-CE671BE95E0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="319">
   <si>
     <t>source_name</t>
   </si>
@@ -225,9 +225,6 @@
     <t>PIP</t>
   </si>
   <si>
-    <t>UNMAPPED_Ticarcillin/Clavulanic Acid</t>
-  </si>
-  <si>
     <t>UNMAPPED_Ticarcillin</t>
   </si>
   <si>
@@ -330,18 +327,9 @@
     <t>UNMAPPED_Pyrazinamide</t>
   </si>
   <si>
-    <t>UNMAPPED_E-Test - Rifampicin</t>
-  </si>
-  <si>
     <t>UNMAPPED_Doxycycline</t>
   </si>
   <si>
-    <t>UNMAPPED_E-Test - Cotrimoxazole</t>
-  </si>
-  <si>
-    <t>UNMAPPED_E-Test - Metronidazole</t>
-  </si>
-  <si>
     <t>UNMAPPED_Pefloxacin</t>
   </si>
   <si>
@@ -814,6 +802,195 @@
   </si>
   <si>
     <t>ab_TCY1</t>
+  </si>
+  <si>
+    <t>CLI.3</t>
+  </si>
+  <si>
+    <t>ERY.3</t>
+  </si>
+  <si>
+    <t>GEN.2</t>
+  </si>
+  <si>
+    <t>VAN.2</t>
+  </si>
+  <si>
+    <t>AMX.4</t>
+  </si>
+  <si>
+    <t>LNZ.1</t>
+  </si>
+  <si>
+    <t>TEC.2</t>
+  </si>
+  <si>
+    <t>AMK.2</t>
+  </si>
+  <si>
+    <t>CIP.3</t>
+  </si>
+  <si>
+    <t>TCY.3</t>
+  </si>
+  <si>
+    <t>AMC.2</t>
+  </si>
+  <si>
+    <t>SXT.2</t>
+  </si>
+  <si>
+    <t>IPM.3</t>
+  </si>
+  <si>
+    <t>AMX.3</t>
+  </si>
+  <si>
+    <t>CAS.1</t>
+  </si>
+  <si>
+    <t>ITR.1</t>
+  </si>
+  <si>
+    <t>AMX.2</t>
+  </si>
+  <si>
+    <t>CAZ.3</t>
+  </si>
+  <si>
+    <t>UNMAPPED_Chloramphenicol.1</t>
+  </si>
+  <si>
+    <t>CTX.2</t>
+  </si>
+  <si>
+    <t>CTX.1</t>
+  </si>
+  <si>
+    <t>FEP.1</t>
+  </si>
+  <si>
+    <t>TIG.1</t>
+  </si>
+  <si>
+    <t>LVX.2</t>
+  </si>
+  <si>
+    <t>IPM.2</t>
+  </si>
+  <si>
+    <t>PEN.1</t>
+  </si>
+  <si>
+    <t>MEM.2</t>
+  </si>
+  <si>
+    <t>MEM.1</t>
+  </si>
+  <si>
+    <t>CIP.2</t>
+  </si>
+  <si>
+    <t>ERY.2</t>
+  </si>
+  <si>
+    <t>TCY.2</t>
+  </si>
+  <si>
+    <t>AMK.1</t>
+  </si>
+  <si>
+    <t>CAZ.2</t>
+  </si>
+  <si>
+    <t>GEN.1</t>
+  </si>
+  <si>
+    <t>IPM.1</t>
+  </si>
+  <si>
+    <t>OXA.2</t>
+  </si>
+  <si>
+    <t>RIF.1</t>
+  </si>
+  <si>
+    <t>UNMAPPED_Streptomycin.1</t>
+  </si>
+  <si>
+    <t>AMX.1</t>
+  </si>
+  <si>
+    <t>ATM.2</t>
+  </si>
+  <si>
+    <t>AMC.1</t>
+  </si>
+  <si>
+    <t>VAN.1</t>
+  </si>
+  <si>
+    <t>CLI.2</t>
+  </si>
+  <si>
+    <t>ATM.1</t>
+  </si>
+  <si>
+    <t>CAZ.1</t>
+  </si>
+  <si>
+    <t>CIP.1</t>
+  </si>
+  <si>
+    <t>SXT.1</t>
+  </si>
+  <si>
+    <t>LVX.1</t>
+  </si>
+  <si>
+    <t>OXA.1</t>
+  </si>
+  <si>
+    <t>COL.1</t>
+  </si>
+  <si>
+    <t>CLI.1</t>
+  </si>
+  <si>
+    <t>ERY.1</t>
+  </si>
+  <si>
+    <t>FOS.1</t>
+  </si>
+  <si>
+    <t>FUS.2</t>
+  </si>
+  <si>
+    <t>UNMAPPED_Nitrofurantoin.1</t>
+  </si>
+  <si>
+    <t>CRO.1</t>
+  </si>
+  <si>
+    <t>FUS.1</t>
+  </si>
+  <si>
+    <t>TEC.1</t>
+  </si>
+  <si>
+    <t>TCY.1</t>
+  </si>
+  <si>
+    <t>UNMAPPED_E.Test...Cotrimoxazole</t>
+  </si>
+  <si>
+    <t>UNMAPPED_E.Test...Metronidazole</t>
+  </si>
+  <si>
+    <t>UNMAPPED_E.Test...Rifampicin</t>
+  </si>
+  <si>
+    <t>UNMAPPED_Ticarcillin.Clavulanic.Acid</t>
   </si>
 </sst>
 </file>
@@ -1173,13 +1350,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DEA6E8-A8B9-4730-B45B-0E3B59B60EA9}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
     <col min="2" max="3" width="25.36328125" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" customWidth="1"/>
@@ -1199,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1213,13 +1390,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1227,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1245,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1264,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1277,10 +1454,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1293,10 +1470,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1314,10 +1491,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1350,10 +1527,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1366,10 +1543,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1377,13 +1554,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1406,13 +1583,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1428,7 +1605,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1446,13 +1623,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1460,13 +1637,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1504,13 +1681,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1518,90 +1695,90 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1609,65 +1786,65 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1675,43 +1852,43 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1719,571 +1896,571 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>298</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D99" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D100" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D104" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -2291,10 +2468,10 @@
         <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D112" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2302,76 +2479,76 @@
         <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D113" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B114" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D114" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D115" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D118" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D119" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -2379,43 +2556,43 @@
         <v>57</v>
       </c>
       <c r="B120" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D120" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D121" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D122" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D123" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -2423,21 +2600,21 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D124" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -2445,10 +2622,10 @@
         <v>55</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D126" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -2456,76 +2633,76 @@
         <v>56</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="B128" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D129" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D131" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D132" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D133" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -2533,21 +2710,21 @@
         <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D135" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -2555,43 +2732,43 @@
         <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D136" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D138" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D139" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2599,10 +2776,10 @@
         <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2610,10 +2787,10 @@
         <v>48</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D141" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -2621,10 +2798,10 @@
         <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D142" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -2632,43 +2809,43 @@
         <v>50</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D143" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D144" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D145" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D146" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -2676,32 +2853,32 @@
         <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D147" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D148" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B149" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D149" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -2709,21 +2886,21 @@
         <v>54</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D150" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="B151" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D151" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -2731,165 +2908,166 @@
         <v>59</v>
       </c>
       <c r="B152" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D152" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="B153" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D153" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B154" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D154" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D155" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D156" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D158" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B159" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D159" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G160" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B161" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D161" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G161" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D162" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B163" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D163" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G164" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B165" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D165" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B166" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D166" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>